--- a/data/trans_dic/P64D$publico_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P64D$publico_2023-Clase-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.07171507590798057</v>
+        <v>0.07171507590798058</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.1012924289749725</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04592862826667766</v>
+        <v>0.04486070180477844</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07427396511732225</v>
+        <v>0.0741368202597337</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06762502680128474</v>
+        <v>0.06636532077234979</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1072445473474341</v>
+        <v>0.1037630290466769</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1335527858733014</v>
+        <v>0.1327136264043171</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1076041648204096</v>
+        <v>0.1098324128571973</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.1033432452868248</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.09283818205205552</v>
+        <v>0.0928381820520555</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05692976224249369</v>
+        <v>0.05537096963986439</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07167725765033077</v>
+        <v>0.07297276441376933</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07162824953886947</v>
+        <v>0.06960150604711821</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1211729392630782</v>
+        <v>0.1191235539005705</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1439648004908715</v>
+        <v>0.1424708388664134</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1194768390232996</v>
+        <v>0.1175284696657732</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.02549925757823225</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.05670771454898978</v>
+        <v>0.05670771454898976</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03871225698060963</v>
+        <v>0.03491496522584261</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.008049434551394863</v>
+        <v>0.008181978100911001</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03328643971381755</v>
+        <v>0.03243210457267156</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1130326458924007</v>
+        <v>0.1064060891202381</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06586083513670234</v>
+        <v>0.07057538801648257</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08971402384431931</v>
+        <v>0.09433081406379597</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.1158893504583551</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.0993919797102919</v>
+        <v>0.09939197971029193</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06314316674515519</v>
+        <v>0.06372818665582801</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08908047496055455</v>
+        <v>0.08869504758426572</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07940625708178189</v>
+        <v>0.08021150123633</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1182568977078785</v>
+        <v>0.1189195448142776</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1454194042382455</v>
+        <v>0.1468108640968178</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.119529546980337</v>
+        <v>0.1198297592938927</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.09426521937644779</v>
+        <v>0.09426521937644777</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.1600701712757903</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0617438314974283</v>
+        <v>0.06224165951420971</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1249719528591783</v>
+        <v>0.1285836924826568</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1039402945144076</v>
+        <v>0.1017075703684283</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1348988154074036</v>
+        <v>0.1368952222851709</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1998576521231382</v>
+        <v>0.2018968126894563</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1564296460208927</v>
+        <v>0.1559135759002827</v>
       </c>
     </row>
     <row r="19">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.08155407594581204</v>
+        <v>0.08155407594581203</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.1145113027437381</v>
+        <v>0.114511302743738</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.09596949840100008</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.06792518861383352</v>
+        <v>0.06898525964896424</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.09843559242248449</v>
+        <v>0.1007004384609426</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.08479638583871656</v>
+        <v>0.085714989492953</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.09652912219596638</v>
+        <v>0.09609054767300867</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1314294000390604</v>
+        <v>0.1309408122234421</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1067812042829587</v>
+        <v>0.1066612369878684</v>
       </c>
     </row>
     <row r="22">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>17109</v>
+        <v>16711</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>24379</v>
+        <v>24334</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>47388</v>
+        <v>46505</v>
       </c>
     </row>
     <row r="7">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>39950</v>
+        <v>38653</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>43836</v>
+        <v>43561</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>75403</v>
+        <v>76965</v>
       </c>
     </row>
     <row r="8">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>18081</v>
+        <v>17586</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>19432</v>
+        <v>19783</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>42168</v>
+        <v>40975</v>
       </c>
     </row>
     <row r="11">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>38484</v>
+        <v>37834</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>39030</v>
+        <v>38625</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>70336</v>
+        <v>69189</v>
       </c>
     </row>
     <row r="12">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>10398</v>
+        <v>9378</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>11660</v>
+        <v>11361</v>
       </c>
     </row>
     <row r="15">
@@ -1183,13 +1183,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>30360</v>
+        <v>28580</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5380</v>
+        <v>5765</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>31426</v>
+        <v>33043</v>
       </c>
     </row>
     <row r="16">
@@ -1238,13 +1238,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>38877</v>
+        <v>39237</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>42231</v>
+        <v>42048</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>86534</v>
+        <v>87412</v>
       </c>
     </row>
     <row r="19">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>72810</v>
+        <v>73218</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>68939</v>
+        <v>69599</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>130260</v>
+        <v>130587</v>
       </c>
     </row>
     <row r="20">
@@ -1310,13 +1310,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>18904</v>
+        <v>19056</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>38361</v>
+        <v>39470</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>63729</v>
+        <v>62360</v>
       </c>
     </row>
     <row r="23">
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>41302</v>
+        <v>41913</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>61348</v>
+        <v>61974</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>95911</v>
+        <v>95595</v>
       </c>
     </row>
     <row r="24">
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>127738</v>
+        <v>129732</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>143919</v>
+        <v>147230</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>283443</v>
+        <v>286514</v>
       </c>
     </row>
     <row r="27">
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>181530</v>
+        <v>180705</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>192158</v>
+        <v>191443</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>356930</v>
+        <v>356529</v>
       </c>
     </row>
     <row r="28">
